--- a/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>BBWI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,149 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44044</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43953</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43862</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43771</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3318000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3024000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4818000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3055000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2319000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1654000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4707000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2677000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2902000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1820000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1610000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2471000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1696000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1530000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1269000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2869000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1718000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1919000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1498000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1414000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2347000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1359000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>789000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>385000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1838000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>959000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +819,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +849,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,37 +881,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>121000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>41000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>162000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>97000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>735000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>285000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,8 +945,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +958,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2719000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2557000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3545000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2527000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2275000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1972000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4626000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2865000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2767000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E18" s="3">
         <v>467000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1273000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>528000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-318000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>81000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-188000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,153 +1036,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>727000</v>
+      </c>
+      <c r="E21" s="3">
         <v>596000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1399000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>658000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>171000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-176000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>231000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-37000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E22" s="3">
         <v>114000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>116000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>121000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>104000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>97000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>92000</v>
       </c>
       <c r="J22" s="3">
         <v>92000</v>
       </c>
       <c r="K22" s="3">
+        <v>92000</v>
+      </c>
+      <c r="L22" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E23" s="3">
         <v>353000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1155000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>410000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-60000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-412000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-277000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E24" s="3">
         <v>76000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>295000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>79000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-115000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>186000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1226,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E26" s="3">
         <v>277000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>860000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>331000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-49000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-297000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-192000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-252000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E27" s="3">
         <v>277000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>860000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>331000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-49000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-297000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-192000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-252000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1322,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1354,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1386,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1418,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E33" s="3">
         <v>277000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>860000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>331000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-49000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-297000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-192000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-252000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1514,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E35" s="3">
         <v>277000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>860000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>331000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-49000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-297000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-192000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-252000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44044</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43953</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43862</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43771</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1599,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,37 +1613,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1988000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2807000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3903000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2622000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2611000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>957000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1499000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>340000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>853000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1586,182 +1675,203 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E43" s="3">
         <v>221000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>269000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>297000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>268000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>229000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>306000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>295000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1473000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1397000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1273000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1865000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1476000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1491000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1287000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2032000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>823000</v>
+      </c>
+      <c r="E45" s="3">
         <v>187000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>134000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>143000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>150000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>172000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>153000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>259000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4514000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4612000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5579000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4927000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4505000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2849000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3245000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2926000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2653000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E47" s="3">
         <v>120000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>119000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>125000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>124000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>120000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>118000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>112000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4565000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4626000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4653000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4789000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4927000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5246000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5539000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5701000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5965000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1784,13 +1894,16 @@
         <v>1039000</v>
       </c>
       <c r="J49" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1729000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1759000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1931,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1963,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E52" s="3">
         <v>149000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>181000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>281000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>285000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>185000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>184000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>162000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2027,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10392000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10546000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11571000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11161000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10880000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9439000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10125000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10630000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10618000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2075,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,37 +2089,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E57" s="3">
         <v>735000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>683000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1101000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>957000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>715000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>647000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1024000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2001,141 +2134,156 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>11000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>460000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>468000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>69000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>83000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1787000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1945000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2143000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2218000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2016000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1656000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1436000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1371000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2625000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2680000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2826000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3330000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3433000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2683000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2372000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2543000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2216000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5938000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5344000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6366000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6451000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6269000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5034000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5500000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5492000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5491000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3017000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3055000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3040000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2944000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3082000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3580000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3748000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3833000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3840000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2311,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2343,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2375,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11581000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11080000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12233000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12729000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12788000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11300000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11624000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11872000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11551000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2423,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2453,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2485,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2517,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2549,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1505000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1144000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1421000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2280000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2611000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2182000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1907000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1572000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2613,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2645,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2677,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1189000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-534000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-662000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1568000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1908000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1861000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1499000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1242000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-933000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2741,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44044</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43953</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43862</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43771</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E81" s="3">
         <v>277000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>860000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>331000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-49000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-297000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-192000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-252000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,8 +2826,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2638,28 +2836,31 @@
         <v>129000</v>
       </c>
       <c r="E83" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F83" s="3">
         <v>128000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>127000</v>
       </c>
       <c r="G83" s="3">
         <v>127000</v>
       </c>
       <c r="H83" s="3">
+        <v>127000</v>
+      </c>
+      <c r="I83" s="3">
         <v>139000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>145000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>148000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2888,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2920,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2952,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +2984,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3016,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E89" s="3">
         <v>249000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1333000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>420000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>628000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-342000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1326000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-252000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3064,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-65000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-76000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-55000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-66000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-148000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3126,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3158,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-67000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-56000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-60000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-72000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-171000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-131000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,13 +3206,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-42000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2992,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-83000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-83000</v>
@@ -3003,8 +3236,11 @@
       <c r="K96" s="3">
         <v>-83000</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>-83000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3268,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3300,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3332,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-461000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1291000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-119000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-342000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1209000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-138000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-96000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-87000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-397000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1096000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1183000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1782000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-542000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1159000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-513000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-293000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>BBWI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,162 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44226</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44044</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43953</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43862</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43771</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3318000</v>
+        <v>1681000</v>
       </c>
       <c r="E8" s="3">
+        <v>3173000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3024000</v>
       </c>
-      <c r="F8" s="3">
-        <v>4818000</v>
-      </c>
       <c r="G8" s="3">
-        <v>3055000</v>
+        <v>2718200</v>
       </c>
       <c r="H8" s="3">
-        <v>2319000</v>
+        <v>1702000</v>
       </c>
       <c r="I8" s="3">
+        <v>2014000</v>
+      </c>
+      <c r="J8" s="3">
         <v>1654000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4707000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2677000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2902000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1820000</v>
+        <v>842000</v>
       </c>
       <c r="E9" s="3">
+        <v>1603000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1610000</v>
       </c>
-      <c r="F9" s="3">
-        <v>2471000</v>
-      </c>
       <c r="G9" s="3">
-        <v>1696000</v>
+        <v>3782900</v>
       </c>
       <c r="H9" s="3">
-        <v>1530000</v>
+        <v>2535000</v>
       </c>
       <c r="I9" s="3">
+        <v>2718000</v>
+      </c>
+      <c r="J9" s="3">
         <v>1269000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2869000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1718000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1919000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1498000</v>
+        <v>839000</v>
       </c>
       <c r="E10" s="3">
+        <v>1570000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1414000</v>
       </c>
-      <c r="F10" s="3">
-        <v>2347000</v>
-      </c>
       <c r="G10" s="3">
-        <v>1359000</v>
+        <v>-1064700</v>
       </c>
       <c r="H10" s="3">
-        <v>789000</v>
+        <v>-833000</v>
       </c>
       <c r="I10" s="3">
+        <v>-704000</v>
+      </c>
+      <c r="J10" s="3">
         <v>385000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1838000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>959000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,8 +833,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +866,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,40 +901,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6000</v>
+        <v>89000</v>
       </c>
       <c r="E14" s="3">
+        <v>112000</v>
+      </c>
+      <c r="F14" s="3">
         <v>121000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>41000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23000</v>
       </c>
-      <c r="H14" s="3">
-        <v>162000</v>
-      </c>
       <c r="I14" s="3">
+        <v>189000</v>
+      </c>
+      <c r="J14" s="3">
         <v>97000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>735000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>285000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -948,8 +971,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -959,72 +985,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2719000</v>
+        <v>1361000</v>
       </c>
       <c r="E17" s="3">
+        <v>2558000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2557000</v>
       </c>
-      <c r="F17" s="3">
-        <v>3545000</v>
-      </c>
       <c r="G17" s="3">
-        <v>2527000</v>
+        <v>1849000</v>
       </c>
       <c r="H17" s="3">
-        <v>2275000</v>
+        <v>1319000</v>
       </c>
       <c r="I17" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="J17" s="3">
         <v>1972000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4626000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2865000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2767000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>599000</v>
+        <v>320000</v>
       </c>
       <c r="E18" s="3">
+        <v>615000</v>
+      </c>
+      <c r="F18" s="3">
         <v>467000</v>
       </c>
-      <c r="F18" s="3">
-        <v>1273000</v>
-      </c>
       <c r="G18" s="3">
-        <v>528000</v>
+        <v>869200</v>
       </c>
       <c r="H18" s="3">
-        <v>44000</v>
+        <v>383000</v>
       </c>
       <c r="I18" s="3">
+        <v>299000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-318000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>81000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-188000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1037,168 +1070,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1000</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>727000</v>
+        <v>370000</v>
       </c>
       <c r="E21" s="3">
+        <v>874000</v>
+      </c>
+      <c r="F21" s="3">
         <v>596000</v>
       </c>
-      <c r="F21" s="3">
-        <v>1399000</v>
-      </c>
       <c r="G21" s="3">
-        <v>658000</v>
+        <v>994900</v>
       </c>
       <c r="H21" s="3">
-        <v>171000</v>
+        <v>511000</v>
       </c>
       <c r="I21" s="3">
+        <v>570000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-176000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>231000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-37000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>99000</v>
+        <v>91000</v>
       </c>
       <c r="E22" s="3">
+        <v>210000</v>
+      </c>
+      <c r="F22" s="3">
         <v>114000</v>
       </c>
-      <c r="F22" s="3">
-        <v>116000</v>
-      </c>
       <c r="G22" s="3">
-        <v>121000</v>
+        <v>115600</v>
       </c>
       <c r="H22" s="3">
-        <v>104000</v>
+        <v>119000</v>
       </c>
       <c r="I22" s="3">
+        <v>198000</v>
+      </c>
+      <c r="J22" s="3">
         <v>97000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>92000</v>
       </c>
       <c r="K22" s="3">
         <v>92000</v>
       </c>
       <c r="L22" s="3">
+        <v>92000</v>
+      </c>
+      <c r="M22" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>499000</v>
+        <v>227000</v>
       </c>
       <c r="E23" s="3">
+        <v>406000</v>
+      </c>
+      <c r="F23" s="3">
         <v>353000</v>
       </c>
-      <c r="F23" s="3">
-        <v>1155000</v>
-      </c>
       <c r="G23" s="3">
-        <v>410000</v>
+        <v>751200</v>
       </c>
       <c r="H23" s="3">
-        <v>-60000</v>
+        <v>265000</v>
       </c>
       <c r="I23" s="3">
+        <v>106000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-412000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-277000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>125000</v>
+        <v>50000</v>
       </c>
       <c r="E24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F24" s="3">
         <v>76000</v>
       </c>
-      <c r="F24" s="3">
-        <v>295000</v>
-      </c>
       <c r="G24" s="3">
-        <v>79000</v>
+        <v>194300</v>
       </c>
       <c r="H24" s="3">
-        <v>-11000</v>
+        <v>69000</v>
       </c>
       <c r="I24" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-115000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>186000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1229,72 +1278,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>374000</v>
+        <v>177000</v>
       </c>
       <c r="E26" s="3">
+        <v>306000</v>
+      </c>
+      <c r="F26" s="3">
         <v>277000</v>
       </c>
-      <c r="F26" s="3">
-        <v>860000</v>
-      </c>
       <c r="G26" s="3">
-        <v>331000</v>
+        <v>556900</v>
       </c>
       <c r="H26" s="3">
-        <v>-49000</v>
+        <v>196000</v>
       </c>
       <c r="I26" s="3">
+        <v>112000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-297000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-192000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-252000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>374000</v>
+        <v>177000</v>
       </c>
       <c r="E27" s="3">
+        <v>306000</v>
+      </c>
+      <c r="F27" s="3">
         <v>277000</v>
       </c>
-      <c r="F27" s="3">
-        <v>860000</v>
-      </c>
       <c r="G27" s="3">
-        <v>331000</v>
+        <v>556900</v>
       </c>
       <c r="H27" s="3">
-        <v>-49000</v>
+        <v>196000</v>
       </c>
       <c r="I27" s="3">
+        <v>112000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-297000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-192000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-252000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,31 +1383,34 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-89000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+        <v>345000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>303400</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-459000</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1357,8 +1418,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1389,8 +1453,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1421,72 +1488,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F32" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>374000</v>
+        <v>88000</v>
       </c>
       <c r="E33" s="3">
+        <v>651000</v>
+      </c>
+      <c r="F33" s="3">
         <v>277000</v>
       </c>
-      <c r="F33" s="3">
-        <v>860000</v>
-      </c>
       <c r="G33" s="3">
+        <v>860300</v>
+      </c>
+      <c r="H33" s="3">
         <v>331000</v>
       </c>
-      <c r="H33" s="3">
-        <v>-49000</v>
-      </c>
       <c r="I33" s="3">
+        <v>-347000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-297000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-192000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-252000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1517,77 +1593,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>374000</v>
+        <v>88000</v>
       </c>
       <c r="E35" s="3">
+        <v>651000</v>
+      </c>
+      <c r="F35" s="3">
         <v>277000</v>
       </c>
-      <c r="F35" s="3">
-        <v>860000</v>
-      </c>
       <c r="G35" s="3">
+        <v>860300</v>
+      </c>
+      <c r="H35" s="3">
         <v>331000</v>
       </c>
-      <c r="H35" s="3">
-        <v>-49000</v>
-      </c>
       <c r="I35" s="3">
+        <v>-347000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-297000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-192000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-252000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44226</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44044</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43953</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43862</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43771</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1600,8 +1685,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1614,40 +1700,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1988000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2807000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3903000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2622000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2611000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>957000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1499000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>340000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>853000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1678,205 +1768,226 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E43" s="3">
         <v>230000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>221000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>269000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>297000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>268000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>229000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>306000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>295000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1473000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1397000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1273000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1865000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1476000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1491000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1287000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2032000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E45" s="3">
         <v>823000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>187000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>134000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>143000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>150000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>172000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>153000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>259000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2985000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4514000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4612000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5579000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4927000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4505000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2849000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3245000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2926000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2653000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E47" s="3">
         <v>119000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>120000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>119000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>125000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>124000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>120000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>118000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>112000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2040000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4565000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4626000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4653000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4789000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4927000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5246000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5539000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5701000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5965000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1039000</v>
+        <v>793000</v>
       </c>
       <c r="E49" s="3">
         <v>1039000</v>
@@ -1897,13 +2008,16 @@
         <v>1039000</v>
       </c>
       <c r="K49" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="L49" s="3">
         <v>1729000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1759000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1934,8 +2048,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1966,40 +2083,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E52" s="3">
         <v>155000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>149000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>181000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>281000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>285000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>185000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>184000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>162000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2030,40 +2153,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6031000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10392000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10546000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11571000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11161000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10880000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9439000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10125000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10630000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10618000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2076,8 +2205,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2090,45 +2220,49 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>655000</v>
+      </c>
+      <c r="E57" s="3">
         <v>838000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>735000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>683000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1101000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>957000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>715000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>647000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1024000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2137,153 +2271,168 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H58" s="3">
         <v>11000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>460000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>468000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>69000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>780000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1787000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1945000</v>
       </c>
-      <c r="F59" s="3">
-        <v>2143000</v>
-      </c>
       <c r="G59" s="3">
+        <v>2131000</v>
+      </c>
+      <c r="H59" s="3">
         <v>2218000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2016000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1656000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1436000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1371000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1435000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2625000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2680000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2826000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3330000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3433000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2683000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2372000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2543000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2216000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4852000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5938000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5344000</v>
       </c>
-      <c r="F61" s="3">
-        <v>6366000</v>
-      </c>
       <c r="G61" s="3">
+        <v>6387000</v>
+      </c>
+      <c r="H61" s="3">
         <v>6451000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6269000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5034000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5500000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5492000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5491000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3017000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3055000</v>
       </c>
-      <c r="F62" s="3">
-        <v>3040000</v>
-      </c>
       <c r="G62" s="3">
+        <v>3019000</v>
+      </c>
+      <c r="H62" s="3">
         <v>2944000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3082000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3580000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3748000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3833000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3840000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2314,8 +2463,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2346,8 +2498,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2378,40 +2533,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7707000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11581000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11080000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12233000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12729000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12788000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11300000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11624000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11872000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11551000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2424,8 +2585,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2456,8 +2618,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2488,8 +2653,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2520,8 +2688,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2552,40 +2723,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1975000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1505000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1144000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1421000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2280000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2611000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2182000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1907000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1572000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2616,8 +2793,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2648,8 +2828,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2680,40 +2863,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1676000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1189000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-534000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-662000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1568000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1908000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1861000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1499000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1242000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-933000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2744,77 +2933,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44226</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44044</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43953</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43862</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43771</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>374000</v>
+        <v>88000</v>
       </c>
       <c r="E81" s="3">
+        <v>651000</v>
+      </c>
+      <c r="F81" s="3">
         <v>277000</v>
       </c>
-      <c r="F81" s="3">
-        <v>860000</v>
-      </c>
       <c r="G81" s="3">
+        <v>860300</v>
+      </c>
+      <c r="H81" s="3">
         <v>331000</v>
       </c>
-      <c r="H81" s="3">
-        <v>-49000</v>
-      </c>
       <c r="I81" s="3">
+        <v>-347000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-297000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-192000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-252000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2827,40 +3025,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>258000</v>
+      </c>
+      <c r="F83" s="3">
         <v>129000</v>
       </c>
-      <c r="E83" s="3">
-        <v>129000</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>128000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>127000</v>
       </c>
       <c r="H83" s="3">
         <v>127000</v>
       </c>
       <c r="I83" s="3">
+        <v>266000</v>
+      </c>
+      <c r="J83" s="3">
         <v>139000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>145000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>148000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2891,8 +3093,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2923,8 +3128,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2955,8 +3163,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2987,8 +3198,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3019,40 +3233,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>324000</v>
+        <v>-126000</v>
       </c>
       <c r="E89" s="3">
+        <v>573000</v>
+      </c>
+      <c r="F89" s="3">
         <v>249000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1333000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>420000</v>
       </c>
-      <c r="H89" s="3">
-        <v>628000</v>
-      </c>
       <c r="I89" s="3">
+        <v>286000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-342000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1326000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-252000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3065,40 +3285,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-113000</v>
+        <v>-63000</v>
       </c>
       <c r="E91" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-65000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-76000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-69000</v>
-      </c>
       <c r="I91" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-55000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-66000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-148000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3129,8 +3353,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3161,40 +3388,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-112000</v>
+        <v>-60000</v>
       </c>
       <c r="E94" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-56000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-67000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-56000</v>
-      </c>
       <c r="I94" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-60000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-72000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-171000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-131000</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3207,16 +3440,17 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-42000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3239,8 +3473,11 @@
       <c r="L96" s="3">
         <v>-83000</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>-83000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3271,8 +3508,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3303,8 +3543,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3335,40 +3578,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-461000</v>
+        <v>-961000</v>
       </c>
       <c r="E100" s="3">
+        <v>-1752000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1291000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-119000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-342000</v>
       </c>
-      <c r="H100" s="3">
-        <v>1209000</v>
-      </c>
       <c r="I100" s="3">
+        <v>1071000</v>
+      </c>
+      <c r="J100" s="3">
         <v>-138000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-96000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-87000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-397000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3379,56 +3628,62 @@
         <v>2000</v>
       </c>
       <c r="F101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-249000</v>
+        <v>-1147000</v>
       </c>
       <c r="E102" s="3">
+        <v>-1345000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1096000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1183000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11000</v>
       </c>
-      <c r="H102" s="3">
-        <v>1782000</v>
-      </c>
       <c r="I102" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-542000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1159000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-513000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-293000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>BBWI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,175 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44499</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43953</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43862</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43771</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3028000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1681000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3173000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3024000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2718200</v>
-      </c>
       <c r="H8" s="3">
+        <v>2718000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1702000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2014000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1654000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4707000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2677000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2902000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1582000</v>
+      </c>
+      <c r="E9" s="3">
         <v>842000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1603000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1610000</v>
       </c>
-      <c r="G9" s="3">
-        <v>3782900</v>
-      </c>
       <c r="H9" s="3">
+        <v>3782000</v>
+      </c>
+      <c r="I9" s="3">
         <v>2535000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2718000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1269000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2869000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1718000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1919000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1446000</v>
+      </c>
+      <c r="E10" s="3">
         <v>839000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1570000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1414000</v>
       </c>
-      <c r="G10" s="3">
-        <v>-1064700</v>
-      </c>
       <c r="H10" s="3">
+        <v>-1064000</v>
+      </c>
+      <c r="I10" s="3">
         <v>-833000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-704000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>385000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1838000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>959000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +847,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +883,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -904,43 +921,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>89000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>112000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>121000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>41000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>189000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>97000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>735000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>285000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -974,8 +997,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -986,78 +1012,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2149000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1361000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2558000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2557000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1849000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1319000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1715000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1972000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4626000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2865000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2767000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>879000</v>
+      </c>
+      <c r="E18" s="3">
         <v>320000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>615000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>467000</v>
       </c>
-      <c r="G18" s="3">
-        <v>869200</v>
-      </c>
       <c r="H18" s="3">
+        <v>869000</v>
+      </c>
+      <c r="I18" s="3">
         <v>383000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>299000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-318000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>81000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-188000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1071,8 +1104,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1080,174 +1114,189 @@
         <v>-2000</v>
       </c>
       <c r="E20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E21" s="3">
         <v>370000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>874000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>596000</v>
       </c>
-      <c r="G21" s="3">
-        <v>994900</v>
-      </c>
       <c r="H21" s="3">
+        <v>994000</v>
+      </c>
+      <c r="I21" s="3">
         <v>511000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>570000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-176000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>231000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-37000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E22" s="3">
         <v>91000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>210000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>114000</v>
       </c>
-      <c r="G22" s="3">
-        <v>115600</v>
-      </c>
       <c r="H22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="I22" s="3">
         <v>119000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>198000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>97000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>92000</v>
       </c>
       <c r="L22" s="3">
         <v>92000</v>
       </c>
       <c r="M22" s="3">
+        <v>92000</v>
+      </c>
+      <c r="N22" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E23" s="3">
         <v>227000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>406000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>353000</v>
       </c>
-      <c r="G23" s="3">
-        <v>751200</v>
-      </c>
       <c r="H23" s="3">
+        <v>751000</v>
+      </c>
+      <c r="I23" s="3">
         <v>265000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>106000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-412000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-277000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E24" s="3">
         <v>50000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>76000</v>
       </c>
-      <c r="G24" s="3">
-        <v>194300</v>
-      </c>
       <c r="H24" s="3">
+        <v>194000</v>
+      </c>
+      <c r="I24" s="3">
         <v>69000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-115000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>186000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-25000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1281,78 +1330,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E26" s="3">
         <v>177000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>306000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>277000</v>
       </c>
-      <c r="G26" s="3">
-        <v>556900</v>
-      </c>
       <c r="H26" s="3">
+        <v>557000</v>
+      </c>
+      <c r="I26" s="3">
         <v>196000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>112000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-297000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-192000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-252000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E27" s="3">
         <v>177000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>306000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>277000</v>
       </c>
-      <c r="G27" s="3">
-        <v>556900</v>
-      </c>
       <c r="H27" s="3">
+        <v>557000</v>
+      </c>
+      <c r="I27" s="3">
         <v>196000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>112000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-297000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-192000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-252000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1386,43 +1444,49 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-89000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>345000</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>303400</v>
-      </c>
       <c r="H29" s="3">
+        <v>303000</v>
+      </c>
+      <c r="I29" s="3">
         <v>135000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-459000</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1456,8 +1520,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1491,8 +1558,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1500,69 +1570,75 @@
         <v>2000</v>
       </c>
       <c r="E32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E33" s="3">
         <v>88000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>651000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>277000</v>
       </c>
-      <c r="G33" s="3">
-        <v>860300</v>
-      </c>
       <c r="H33" s="3">
+        <v>860000</v>
+      </c>
+      <c r="I33" s="3">
         <v>331000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-347000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-297000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-192000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-252000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1596,83 +1672,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E35" s="3">
         <v>88000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>651000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>277000</v>
       </c>
-      <c r="G35" s="3">
-        <v>860300</v>
-      </c>
       <c r="H35" s="3">
+        <v>860000</v>
+      </c>
+      <c r="I35" s="3">
         <v>331000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-347000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-297000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-192000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-252000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44499</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43953</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43862</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43771</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1686,8 +1771,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1701,43 +1787,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1979000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1441000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1988000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2807000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3903000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2622000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2611000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>957000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1499000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>340000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>853000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1771,218 +1861,239 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E43" s="3">
         <v>242000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>230000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>221000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>269000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>297000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>268000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>229000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>306000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>295000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1149000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1473000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1397000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1273000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1865000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1476000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1491000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1287000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2032000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E45" s="3">
         <v>153000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>823000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>187000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>134000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>143000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>150000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>172000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>153000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>259000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3009000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2985000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4514000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4612000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5579000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4927000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4505000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2849000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3245000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2926000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2653000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E47" s="3">
         <v>125000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>119000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>120000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>119000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>125000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>124000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>120000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>118000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>112000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2030000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2040000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4565000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4626000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4653000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4789000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4927000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5246000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5539000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5701000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5965000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1990,7 +2101,7 @@
         <v>793000</v>
       </c>
       <c r="E49" s="3">
-        <v>1039000</v>
+        <v>793000</v>
       </c>
       <c r="F49" s="3">
         <v>1039000</v>
@@ -2011,13 +2122,16 @@
         <v>1039000</v>
       </c>
       <c r="L49" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="M49" s="3">
         <v>1729000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1759000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2051,8 +2165,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2086,43 +2203,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E52" s="3">
         <v>88000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>155000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>149000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>181000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>281000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>285000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>185000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>184000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>162000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2156,43 +2279,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6026000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6031000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10392000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10546000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11571000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11161000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10880000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9439000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10125000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10630000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10618000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2206,8 +2335,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2221,218 +2351,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E57" s="3">
         <v>655000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>838000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>735000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>683000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1101000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>957000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>715000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>647000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1024000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>12000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>460000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>468000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>69000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>83000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>855000</v>
+      </c>
+      <c r="E59" s="3">
         <v>780000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1787000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1945000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2131000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2218000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2016000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1656000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1436000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1371000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1290000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1435000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2625000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2680000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2826000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3330000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3433000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2683000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2372000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2543000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2216000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4854000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4852000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5938000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5344000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6387000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6451000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6269000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5034000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5500000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5492000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5491000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1399000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1419000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3017000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3055000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3019000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2944000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3082000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3580000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3748000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3833000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3840000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2466,8 +2615,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2501,8 +2653,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2536,43 +2691,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7544000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7707000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11581000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11080000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12233000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12729000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12788000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11300000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11624000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11872000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11551000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2586,8 +2747,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2621,8 +2783,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2656,8 +2821,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2691,8 +2859,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2726,43 +2897,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1803000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1975000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1505000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1144000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1421000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2280000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2611000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2182000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1907000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1572000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2796,8 +2973,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2831,8 +3011,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2866,43 +3049,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1518000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1676000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1189000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-534000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-662000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1568000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1908000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1861000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1499000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1242000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-933000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2936,83 +3125,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44499</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43953</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43862</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43771</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E81" s="3">
         <v>88000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>651000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>277000</v>
       </c>
-      <c r="G81" s="3">
-        <v>860300</v>
-      </c>
       <c r="H81" s="3">
+        <v>860000</v>
+      </c>
+      <c r="I81" s="3">
         <v>331000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-347000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-297000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-192000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-252000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3026,43 +3224,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E83" s="3">
         <v>52000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>258000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>129000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>128000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>127000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>266000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>139000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>145000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>148000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3096,8 +3298,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3131,8 +3336,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3166,8 +3374,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3201,8 +3412,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3236,43 +3450,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-126000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>573000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>249000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1333000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>420000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>286000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-342000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1326000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-252000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3286,43 +3506,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-63000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-178000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-76000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-124000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-148000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3356,8 +3580,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3391,43 +3618,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-60000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-168000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-56000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-36000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-67000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-116000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-60000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-72000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-171000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-131000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3441,8 +3674,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3450,11 +3684,11 @@
         <v>-39000</v>
       </c>
       <c r="E96" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-42000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3462,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-83000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-83000</v>
@@ -3476,8 +3710,11 @@
       <c r="M96" s="3">
         <v>-83000</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>-83000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3511,8 +3748,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3546,8 +3786,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3581,109 +3824,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-475000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-961000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1752000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1291000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-119000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-342000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1071000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-138000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-96000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-87000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-397000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>2000</v>
       </c>
       <c r="G101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1147000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1345000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1096000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1183000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1240000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-542000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1159000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-513000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-293000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>BBWI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,187 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43953</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43862</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43771</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3028000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1681000</v>
       </c>
-      <c r="F8" s="3">
-        <v>3173000</v>
-      </c>
       <c r="G8" s="3">
-        <v>3024000</v>
+        <v>1703700</v>
       </c>
       <c r="H8" s="3">
+        <v>1470000</v>
+      </c>
+      <c r="I8" s="3">
         <v>2718000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1702000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2014000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1654000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4707000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2677000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2902000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>781000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1582000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>842000</v>
       </c>
-      <c r="F9" s="3">
-        <v>1603000</v>
-      </c>
       <c r="G9" s="3">
-        <v>1610000</v>
+        <v>875300</v>
       </c>
       <c r="H9" s="3">
+        <v>728000</v>
+      </c>
+      <c r="I9" s="3">
         <v>3782000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2535000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2718000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1269000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2869000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1718000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1919000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>669000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1446000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>839000</v>
       </c>
-      <c r="F10" s="3">
-        <v>1570000</v>
-      </c>
       <c r="G10" s="3">
-        <v>1414000</v>
+        <v>828400</v>
       </c>
       <c r="H10" s="3">
+        <v>742000</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1064000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-833000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-704000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>385000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1838000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>959000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +860,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -886,8 +899,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -924,46 +940,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>89000</v>
       </c>
-      <c r="F14" s="3">
-        <v>112000</v>
-      </c>
       <c r="G14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H14" s="3">
         <v>121000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>41000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>189000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>97000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>735000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>285000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,8 +1022,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1013,84 +1038,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1170000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2149000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1361000</v>
       </c>
-      <c r="F17" s="3">
-        <v>2558000</v>
-      </c>
       <c r="G17" s="3">
-        <v>2557000</v>
+        <v>1319600</v>
       </c>
       <c r="H17" s="3">
+        <v>1238000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1849000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1319000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1715000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1972000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4626000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2865000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2767000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E18" s="3">
         <v>879000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>320000</v>
       </c>
-      <c r="F18" s="3">
-        <v>615000</v>
-      </c>
       <c r="G18" s="3">
-        <v>467000</v>
+        <v>384100</v>
       </c>
       <c r="H18" s="3">
+        <v>232000</v>
+      </c>
+      <c r="I18" s="3">
         <v>869000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>383000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>299000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-318000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>81000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-188000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,198 +1137,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
         <v>-2000</v>
       </c>
       <c r="F20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E21" s="3">
         <v>930000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>370000</v>
       </c>
-      <c r="F21" s="3">
-        <v>874000</v>
-      </c>
       <c r="G21" s="3">
-        <v>596000</v>
+        <v>512900</v>
       </c>
       <c r="H21" s="3">
+        <v>362000</v>
+      </c>
+      <c r="I21" s="3">
         <v>994000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>511000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>570000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-176000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>231000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-37000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E22" s="3">
         <v>87000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>91000</v>
       </c>
-      <c r="F22" s="3">
-        <v>210000</v>
-      </c>
       <c r="G22" s="3">
+        <v>96700</v>
+      </c>
+      <c r="H22" s="3">
         <v>114000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>115000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>119000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>198000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>97000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>92000</v>
       </c>
       <c r="M22" s="3">
         <v>92000</v>
       </c>
       <c r="N22" s="3">
+        <v>92000</v>
+      </c>
+      <c r="O22" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E23" s="3">
         <v>790000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>227000</v>
       </c>
-      <c r="F23" s="3">
-        <v>406000</v>
-      </c>
       <c r="G23" s="3">
-        <v>353000</v>
+        <v>287200</v>
       </c>
       <c r="H23" s="3">
+        <v>119000</v>
+      </c>
+      <c r="I23" s="3">
         <v>751000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>265000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>106000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-412000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-277000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E24" s="3">
         <v>198000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>50000</v>
       </c>
-      <c r="F24" s="3">
-        <v>100000</v>
-      </c>
       <c r="G24" s="3">
-        <v>76000</v>
+        <v>72000</v>
       </c>
       <c r="H24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="I24" s="3">
         <v>194000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>69000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-115000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>186000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1333,84 +1381,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E26" s="3">
         <v>592000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>177000</v>
       </c>
-      <c r="F26" s="3">
-        <v>306000</v>
-      </c>
       <c r="G26" s="3">
-        <v>277000</v>
+        <v>215300</v>
       </c>
       <c r="H26" s="3">
+        <v>91000</v>
+      </c>
+      <c r="I26" s="3">
         <v>557000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>196000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>112000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-297000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-192000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-252000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E27" s="3">
         <v>592000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>177000</v>
       </c>
-      <c r="F27" s="3">
-        <v>306000</v>
-      </c>
       <c r="G27" s="3">
-        <v>277000</v>
+        <v>215300</v>
       </c>
       <c r="H27" s="3">
+        <v>91000</v>
+      </c>
+      <c r="I27" s="3">
         <v>557000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>196000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>112000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-297000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-192000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-252000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1447,46 +1504,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>2000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-89000</v>
       </c>
-      <c r="F29" s="3">
-        <v>345000</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>503900</v>
+      </c>
+      <c r="H29" s="3">
+        <v>186000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>303000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>303000</v>
-      </c>
-      <c r="I29" s="3">
-        <v>135000</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-459000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1523,8 +1586,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1561,84 +1627,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
         <v>2000</v>
       </c>
       <c r="F32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E33" s="3">
         <v>594000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>88000</v>
       </c>
-      <c r="F33" s="3">
-        <v>651000</v>
-      </c>
       <c r="G33" s="3">
+        <v>719200</v>
+      </c>
+      <c r="H33" s="3">
         <v>277000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>860000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>331000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-347000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-297000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-192000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-252000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1675,89 +1750,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E35" s="3">
         <v>594000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>88000</v>
       </c>
-      <c r="F35" s="3">
-        <v>651000</v>
-      </c>
       <c r="G35" s="3">
+        <v>719200</v>
+      </c>
+      <c r="H35" s="3">
         <v>277000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>860000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>331000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-347000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-297000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-192000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-252000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43953</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43862</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43771</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1772,8 +1856,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1788,46 +1873,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>651000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1979000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1441000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1988000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2807000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3903000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2622000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2611000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>957000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1499000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>340000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>853000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1864,160 +1953,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E43" s="3">
         <v>240000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>242000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>230000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>221000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>269000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>297000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>268000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>229000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>306000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>295000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E44" s="3">
         <v>709000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1149000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1473000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1397000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1273000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1865000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1476000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1491000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1287000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2032000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E45" s="3">
         <v>81000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>153000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>823000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>187000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>134000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>143000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>150000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>172000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>153000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>259000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1752000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3009000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2985000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4514000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4612000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5579000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4927000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4505000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2849000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3245000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2926000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2653000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2025,75 +2129,81 @@
         <v>126000</v>
       </c>
       <c r="E47" s="3">
+        <v>126000</v>
+      </c>
+      <c r="F47" s="3">
         <v>125000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>119000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>120000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>119000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>125000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>124000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>120000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>118000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>112000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2117000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2030000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2040000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4565000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4626000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4653000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4789000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4927000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5246000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5539000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5701000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5965000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2104,7 +2214,7 @@
         <v>793000</v>
       </c>
       <c r="F49" s="3">
-        <v>1039000</v>
+        <v>793000</v>
       </c>
       <c r="G49" s="3">
         <v>1039000</v>
@@ -2125,13 +2235,16 @@
         <v>1039000</v>
       </c>
       <c r="M49" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="N49" s="3">
         <v>1729000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1759000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2168,8 +2281,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2206,46 +2322,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E52" s="3">
         <v>68000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>88000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>155000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>149000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>181000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>281000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>285000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>185000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>184000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>162000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2282,46 +2404,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4860000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6026000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6031000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10392000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10546000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11571000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11161000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10880000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9439000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10125000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10630000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10618000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2336,8 +2464,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2352,46 +2481,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E57" s="3">
         <v>435000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>655000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>838000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>735000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>683000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1101000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>957000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>715000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>647000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1024000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2401,187 +2534,202 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>12000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>460000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>468000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>69000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>83000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>770000</v>
+      </c>
+      <c r="E59" s="3">
         <v>855000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>780000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1787000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1945000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2131000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2218000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2016000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1656000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1436000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1371000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1290000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1435000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2625000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2680000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2826000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3330000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3433000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2683000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2372000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2543000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2216000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4856000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4854000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4852000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5938000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5344000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6387000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6451000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6269000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5034000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5500000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5492000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5491000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1422000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1399000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1419000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3017000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3055000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3019000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2944000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3082000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3580000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3748000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3833000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3840000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2618,8 +2766,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2656,8 +2807,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2694,46 +2848,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7519000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7544000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7707000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11581000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11080000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12233000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12729000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12788000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11300000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11624000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11872000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11551000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2748,8 +2908,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2786,8 +2947,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2824,8 +2988,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2862,8 +3029,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2900,46 +3070,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2661000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1803000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1975000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1505000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1144000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1421000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2280000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2611000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2182000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1907000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1572000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2976,8 +3152,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3014,8 +3193,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3052,46 +3234,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2659000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1518000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1676000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1189000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-534000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-662000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1568000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1908000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1861000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1499000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1242000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-933000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3128,89 +3316,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43953</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43862</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43771</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E81" s="3">
         <v>594000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>88000</v>
       </c>
-      <c r="F81" s="3">
-        <v>651000</v>
-      </c>
       <c r="G81" s="3">
+        <v>719200</v>
+      </c>
+      <c r="H81" s="3">
         <v>277000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>860000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>331000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-347000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-297000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-192000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-252000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3225,8 +3422,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3234,37 +3432,40 @@
         <v>53000</v>
       </c>
       <c r="E83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F83" s="3">
         <v>52000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>258000</v>
       </c>
       <c r="G83" s="3">
         <v>129000</v>
       </c>
       <c r="H83" s="3">
+        <v>129000</v>
+      </c>
+      <c r="I83" s="3">
         <v>128000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>127000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>266000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>145000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>148000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3301,8 +3502,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3339,8 +3543,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3377,8 +3584,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3415,8 +3625,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3453,46 +3666,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1045000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-126000</v>
       </c>
-      <c r="F89" s="3">
-        <v>573000</v>
-      </c>
       <c r="G89" s="3">
+        <v>324000</v>
+      </c>
+      <c r="H89" s="3">
         <v>249000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1333000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>420000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>286000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-342000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1326000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-252000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3507,46 +3726,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-178000</v>
-      </c>
       <c r="G91" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-65000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-76000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-124000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-66000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-148000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3583,8 +3806,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3621,46 +3847,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-60000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-168000</v>
-      </c>
       <c r="G94" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-56000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-36000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-67000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-116000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-60000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-171000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-131000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3675,23 +3907,24 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-39000</v>
+        <v>-48000</v>
       </c>
       <c r="E96" s="3">
         <v>-39000</v>
       </c>
       <c r="F96" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-42000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3699,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-83000</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-83000</v>
@@ -3713,8 +3946,11 @@
       <c r="N96" s="3">
         <v>-83000</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>-83000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3751,8 +3987,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3789,8 +4028,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3827,118 +4069,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1306000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-475000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-961000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-1752000</v>
-      </c>
       <c r="G100" s="3">
+        <v>-461000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1291000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-119000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-342000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1071000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-138000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-96000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-87000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-397000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1328000</v>
+      </c>
+      <c r="E102" s="3">
         <v>538000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1147000</v>
       </c>
-      <c r="F102" s="3">
-        <v>-1345000</v>
-      </c>
       <c r="G102" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1096000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1183000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1240000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-542000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1159000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-513000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-293000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>BBWI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,187 +665,200 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43953</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43862</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43771</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1450000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3028000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1681000</v>
       </c>
-      <c r="G8" s="3">
-        <v>1703700</v>
-      </c>
       <c r="H8" s="3">
+        <v>3173000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1470000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2718000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1702000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2014000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1654000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4707000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2677000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2902000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E9" s="3">
         <v>781000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1582000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>842000</v>
       </c>
-      <c r="G9" s="3">
-        <v>875300</v>
-      </c>
       <c r="H9" s="3">
+        <v>1603000</v>
+      </c>
+      <c r="I9" s="3">
         <v>728000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3782000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2535000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2718000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1269000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2869000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1718000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1919000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>660000</v>
+      </c>
+      <c r="E10" s="3">
         <v>669000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1446000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>839000</v>
       </c>
-      <c r="G10" s="3">
-        <v>828400</v>
-      </c>
       <c r="H10" s="3">
+        <v>1570000</v>
+      </c>
+      <c r="I10" s="3">
         <v>742000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1064000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-833000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-704000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>385000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1838000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>959000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +874,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -902,8 +916,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -943,49 +960,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>89000</v>
       </c>
-      <c r="G14" s="3">
-        <v>6000</v>
-      </c>
       <c r="H14" s="3">
+        <v>112000</v>
+      </c>
+      <c r="I14" s="3">
         <v>121000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>41000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>189000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>97000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>735000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>285000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,8 +1048,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1039,90 +1065,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1376000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1170000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2149000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1361000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1319600</v>
-      </c>
       <c r="H17" s="3">
+        <v>2558000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1238000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1849000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1319000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1715000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1972000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4626000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2865000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2767000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E18" s="3">
         <v>280000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>879000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>320000</v>
       </c>
-      <c r="G18" s="3">
-        <v>384100</v>
-      </c>
       <c r="H18" s="3">
+        <v>615000</v>
+      </c>
+      <c r="I18" s="3">
         <v>232000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>869000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>383000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>299000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-318000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-188000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1138,213 +1171,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2000</v>
       </c>
       <c r="F20" s="3">
         <v>-2000</v>
       </c>
       <c r="G20" s="3">
-        <v>-200</v>
+        <v>-2000</v>
       </c>
       <c r="H20" s="3">
         <v>1000</v>
       </c>
       <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E21" s="3">
         <v>334000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>930000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>370000</v>
       </c>
-      <c r="G21" s="3">
-        <v>512900</v>
-      </c>
       <c r="H21" s="3">
+        <v>874000</v>
+      </c>
+      <c r="I21" s="3">
         <v>362000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>994000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>511000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>570000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-176000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>231000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-37000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E22" s="3">
         <v>89000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>87000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>91000</v>
       </c>
-      <c r="G22" s="3">
-        <v>96700</v>
-      </c>
       <c r="H22" s="3">
+        <v>210000</v>
+      </c>
+      <c r="I22" s="3">
         <v>114000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>115000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>119000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>198000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>97000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>92000</v>
       </c>
       <c r="N22" s="3">
         <v>92000</v>
       </c>
       <c r="O22" s="3">
+        <v>92000</v>
+      </c>
+      <c r="P22" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E23" s="3">
         <v>192000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>790000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>227000</v>
       </c>
-      <c r="G23" s="3">
-        <v>287200</v>
-      </c>
       <c r="H23" s="3">
+        <v>406000</v>
+      </c>
+      <c r="I23" s="3">
         <v>119000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>751000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>265000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>106000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-412000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-277000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E24" s="3">
         <v>37000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>198000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>50000</v>
       </c>
-      <c r="G24" s="3">
-        <v>72000</v>
-      </c>
       <c r="H24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>194000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>69000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-115000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>186000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1384,90 +1433,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E26" s="3">
         <v>155000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>592000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>177000</v>
       </c>
-      <c r="G26" s="3">
-        <v>215300</v>
-      </c>
       <c r="H26" s="3">
+        <v>306000</v>
+      </c>
+      <c r="I26" s="3">
         <v>91000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>557000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>196000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>112000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-297000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-192000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-252000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E27" s="3">
         <v>155000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>592000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>177000</v>
       </c>
-      <c r="G27" s="3">
-        <v>215300</v>
-      </c>
       <c r="H27" s="3">
+        <v>306000</v>
+      </c>
+      <c r="I27" s="3">
         <v>91000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>557000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>196000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-297000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-192000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-252000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1507,8 +1565,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1516,40 +1577,43 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>2000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-89000</v>
       </c>
-      <c r="G29" s="3">
-        <v>503900</v>
-      </c>
       <c r="H29" s="3">
+        <v>345000</v>
+      </c>
+      <c r="I29" s="3">
         <v>186000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>303000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>135000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-459000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1589,8 +1653,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1630,90 +1697,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2000</v>
       </c>
       <c r="F32" s="3">
         <v>2000</v>
       </c>
       <c r="G32" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H32" s="3">
         <v>-1000</v>
       </c>
       <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E33" s="3">
         <v>155000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>594000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>88000</v>
       </c>
-      <c r="G33" s="3">
-        <v>719200</v>
-      </c>
       <c r="H33" s="3">
+        <v>651000</v>
+      </c>
+      <c r="I33" s="3">
         <v>277000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>860000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>331000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-347000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-297000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-192000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-252000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1753,95 +1829,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E35" s="3">
         <v>155000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>594000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>88000</v>
       </c>
-      <c r="G35" s="3">
-        <v>719200</v>
-      </c>
       <c r="H35" s="3">
+        <v>651000</v>
+      </c>
+      <c r="I35" s="3">
         <v>277000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>860000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>331000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-347000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-297000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-192000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-252000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43953</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43862</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43771</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1857,8 +1942,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1874,49 +1960,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E41" s="3">
         <v>651000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1979000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1441000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1988000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2807000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3903000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2622000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2611000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>957000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1499000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>340000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>853000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1956,254 +2046,275 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E43" s="3">
         <v>167000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>240000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>242000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>230000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>221000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>269000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>297000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>268000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>229000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>306000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>295000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>971000</v>
+      </c>
+      <c r="E44" s="3">
         <v>820000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>709000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1149000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1473000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1397000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1273000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1865000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1476000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1491000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1287000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2032000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E45" s="3">
         <v>114000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>81000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>153000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>823000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>187000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>134000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>143000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>150000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>172000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>153000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>259000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1752000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3009000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2985000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4514000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4612000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5579000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4927000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4505000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2849000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3245000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2926000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2653000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>126000</v>
+        <v>125000</v>
       </c>
       <c r="E47" s="3">
         <v>126000</v>
       </c>
       <c r="F47" s="3">
+        <v>126000</v>
+      </c>
+      <c r="G47" s="3">
         <v>125000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>119000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>120000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>119000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>125000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>124000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>120000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>118000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>112000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2158000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2117000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2030000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2040000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4565000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4626000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4653000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4789000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4927000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5246000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5539000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5701000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5965000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2217,7 +2328,7 @@
         <v>793000</v>
       </c>
       <c r="G49" s="3">
-        <v>1039000</v>
+        <v>793000</v>
       </c>
       <c r="H49" s="3">
         <v>1039000</v>
@@ -2238,13 +2349,16 @@
         <v>1039000</v>
       </c>
       <c r="N49" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="O49" s="3">
         <v>1729000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1759000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2284,8 +2398,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2325,49 +2442,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E52" s="3">
         <v>72000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>88000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>155000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>149000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>181000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>281000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>285000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>185000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>184000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>162000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2407,49 +2530,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4901000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4860000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6026000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6031000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10392000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10546000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11571000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11161000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10880000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9439000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10125000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10630000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10618000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2465,8 +2594,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2482,49 +2612,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E57" s="3">
         <v>470000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>435000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>655000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>838000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>735000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>683000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1101000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>957000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>715000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>647000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1024000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2537,199 +2671,214 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>12000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>460000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>468000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>69000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>83000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E59" s="3">
         <v>770000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>855000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>780000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1787000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1945000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2131000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2218000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2016000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1656000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1436000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1371000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1258000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1240000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1290000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1435000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2625000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2680000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2826000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3330000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3433000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2683000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2372000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2543000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2216000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4858000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4856000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4854000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4852000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5938000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5344000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6387000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6451000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6269000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5034000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5500000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5492000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5491000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1422000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1399000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1419000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3017000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3055000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3019000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2944000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3082000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3580000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3748000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3833000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3840000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2769,8 +2918,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2810,8 +2962,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2851,49 +3006,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7564000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7519000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7544000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7707000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11581000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11080000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12233000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12729000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12788000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11300000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11624000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11872000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11551000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2909,8 +3070,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2950,8 +3112,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2991,8 +3156,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3032,8 +3200,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3073,49 +3244,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2834000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2661000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1803000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1975000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1505000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1144000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1421000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2280000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2611000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2182000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1907000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1572000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3155,8 +3332,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3196,8 +3376,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3237,49 +3420,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2663000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2659000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1518000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1676000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1189000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-534000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-662000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1568000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1908000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1861000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1499000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1242000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-933000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3319,95 +3508,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43953</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43862</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43771</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E81" s="3">
         <v>155000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>594000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>88000</v>
       </c>
-      <c r="G81" s="3">
-        <v>719200</v>
-      </c>
       <c r="H81" s="3">
+        <v>651000</v>
+      </c>
+      <c r="I81" s="3">
         <v>277000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>860000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>331000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-347000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-297000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-192000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-252000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3423,8 +3621,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3435,37 +3634,40 @@
         <v>53000</v>
       </c>
       <c r="F83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="G83" s="3">
         <v>52000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>258000</v>
+      </c>
+      <c r="I83" s="3">
         <v>129000</v>
       </c>
-      <c r="H83" s="3">
-        <v>129000</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>128000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>127000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>266000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>139000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>145000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>148000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3505,8 +3707,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3546,8 +3751,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3587,8 +3795,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3628,8 +3839,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3669,49 +3883,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E89" s="3">
         <v>66000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1045000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-126000</v>
       </c>
-      <c r="G89" s="3">
-        <v>324000</v>
-      </c>
       <c r="H89" s="3">
+        <v>573000</v>
+      </c>
+      <c r="I89" s="3">
         <v>249000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1333000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>420000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>286000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-342000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1326000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-252000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3727,49 +3947,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-88000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-63000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-113000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-65000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-76000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-124000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-66000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-148000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3809,8 +4033,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3850,49 +4077,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-88000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-60000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-112000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-56000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-67000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-116000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-72000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-171000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-131000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3908,26 +4141,27 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-48000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-39000</v>
       </c>
       <c r="F96" s="3">
         <v>-39000</v>
       </c>
       <c r="G96" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-42000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3935,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-83000</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-83000</v>
@@ -3949,8 +4183,11 @@
       <c r="O96" s="3">
         <v>-83000</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>-83000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3990,8 +4227,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4031,8 +4271,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4072,49 +4315,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1306000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-475000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-961000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-461000</v>
-      </c>
       <c r="H100" s="3">
+        <v>-1752000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1291000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-119000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-342000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1071000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-138000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-96000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-87000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-397000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4122,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4134,65 +4383,71 @@
         <v>2000</v>
       </c>
       <c r="I101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-199000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>538000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1147000</v>
       </c>
-      <c r="G102" s="3">
-        <v>-249000</v>
-      </c>
       <c r="H102" s="3">
+        <v>-1345000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1096000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1183000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1240000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-542000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1159000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-513000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-293000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>BBWI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,200 +665,213 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43953</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43862</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43771</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1604000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1618000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1450000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3028000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1681000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3173000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1470000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2718000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1702000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2014000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1654000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4707000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2677000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2902000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>926000</v>
+      </c>
+      <c r="E9" s="3">
         <v>958000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>781000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1582000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>842000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1603000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>728000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3782000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2535000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2718000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1269000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2869000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1718000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1919000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E10" s="3">
         <v>660000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>669000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1446000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>839000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1570000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>742000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1064000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-833000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-704000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>385000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1838000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>959000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +888,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,8 +933,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -963,8 +980,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -974,41 +994,44 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>89000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>112000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>121000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>41000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>189000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>97000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>735000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>285000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,8 +1074,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1066,96 +1092,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1402000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1376000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1170000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2149000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1361000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2558000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1238000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1849000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1319000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1715000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1972000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4626000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2865000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2767000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E18" s="3">
         <v>242000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>280000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>879000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>320000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>615000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>232000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>869000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>383000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>299000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-318000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-188000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1172,96 +1205,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2000</v>
       </c>
       <c r="G20" s="3">
         <v>-2000</v>
       </c>
       <c r="H20" s="3">
-        <v>1000</v>
+        <v>-2000</v>
       </c>
       <c r="I20" s="3">
         <v>1000</v>
       </c>
       <c r="J20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E21" s="3">
         <v>297000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>334000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>930000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>370000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>874000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>362000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>994000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>511000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>570000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-176000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>231000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-37000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,131 +1309,140 @@
         <v>86000</v>
       </c>
       <c r="E22" s="3">
+        <v>86000</v>
+      </c>
+      <c r="F22" s="3">
         <v>89000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>87000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>91000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>210000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>114000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>115000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>119000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>198000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>97000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>92000</v>
       </c>
       <c r="O22" s="3">
         <v>92000</v>
       </c>
       <c r="P22" s="3">
+        <v>92000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E23" s="3">
         <v>158000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>192000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>790000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>227000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>406000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>119000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>751000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>265000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>106000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-412000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-277000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>38000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>198000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>50000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>194000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-115000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>186000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1436,96 +1485,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E26" s="3">
         <v>120000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>155000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>592000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>177000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>306000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>91000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>557000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>196000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>112000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-297000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-192000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-252000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E27" s="3">
         <v>120000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>155000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>592000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>177000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>306000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>91000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>557000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>196000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-297000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-192000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-252000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1568,8 +1626,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1580,40 +1641,43 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>2000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-89000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>345000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>186000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>303000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>135000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-459000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1656,8 +1720,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1700,96 +1767,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2000</v>
       </c>
       <c r="G32" s="3">
         <v>2000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="I32" s="3">
         <v>-1000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E33" s="3">
         <v>120000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>155000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>594000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>88000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>651000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>277000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>860000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>331000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-347000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-297000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-192000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-252000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1832,101 +1908,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E35" s="3">
         <v>120000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>155000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>594000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>88000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>651000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>277000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>860000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>331000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-347000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-297000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-192000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-252000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43953</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43862</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43771</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1943,8 +2028,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1961,52 +2047,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E41" s="3">
         <v>452000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>651000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1979000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1441000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1988000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2807000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3903000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2622000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2611000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>957000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1499000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>340000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>853000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2049,184 +2139,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E43" s="3">
         <v>184000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>167000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>240000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>242000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>230000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>221000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>269000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>297000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>268000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>229000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>306000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>295000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1269000</v>
+      </c>
+      <c r="E44" s="3">
         <v>971000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>820000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>709000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1149000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1473000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1397000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1273000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1865000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1476000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1491000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1287000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2032000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E45" s="3">
         <v>147000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>114000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>81000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>153000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>823000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>187000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>134000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>150000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>172000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>153000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>259000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1948000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1754000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1752000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3009000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2985000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4514000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4612000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5579000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4927000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4505000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2849000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3245000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2926000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2653000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2234,87 +2339,93 @@
         <v>125000</v>
       </c>
       <c r="E47" s="3">
-        <v>126000</v>
+        <v>125000</v>
       </c>
       <c r="F47" s="3">
         <v>126000</v>
       </c>
       <c r="G47" s="3">
+        <v>126000</v>
+      </c>
+      <c r="H47" s="3">
         <v>125000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>119000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>120000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>119000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>125000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>124000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>120000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>118000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>112000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2195000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2158000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2117000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2030000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2040000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4565000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4626000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4653000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4789000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4927000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5246000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5539000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5701000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5965000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2331,7 +2442,7 @@
         <v>793000</v>
       </c>
       <c r="H49" s="3">
-        <v>1039000</v>
+        <v>793000</v>
       </c>
       <c r="I49" s="3">
         <v>1039000</v>
@@ -2352,13 +2463,16 @@
         <v>1039000</v>
       </c>
       <c r="O49" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="P49" s="3">
         <v>1729000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1759000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2401,8 +2515,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2445,52 +2562,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E52" s="3">
         <v>71000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>72000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>68000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>88000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>155000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>149000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>181000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>281000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>285000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>185000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>184000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>162000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2533,52 +2656,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5133000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4901000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4860000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6026000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6031000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10392000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10546000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11571000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11161000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10880000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9439000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10125000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10630000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10618000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2595,8 +2724,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2613,52 +2743,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>632000</v>
+      </c>
+      <c r="E57" s="3">
         <v>587000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>470000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>435000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>655000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>838000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>735000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>683000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1101000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>957000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>715000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>647000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1024000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,211 +2808,226 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>12000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>460000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>468000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>69000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>83000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E59" s="3">
         <v>671000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>770000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>855000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>780000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1787000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1945000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2131000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2218000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2016000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1656000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1436000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1371000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1452000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1258000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1240000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1290000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1435000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2625000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2680000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2826000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3330000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3433000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2683000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2372000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2543000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2216000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4860000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4858000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4856000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4854000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4852000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5938000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5344000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6387000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6451000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6269000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5034000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5500000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5492000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5491000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1447000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1422000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1399000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1419000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3017000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3055000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3019000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2944000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3082000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3580000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3748000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3833000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3840000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2921,8 +3070,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2965,8 +3117,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3009,52 +3164,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7742000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7564000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7519000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7544000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7707000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11581000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11080000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12233000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12729000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12788000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11300000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11624000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11872000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11551000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3071,8 +3232,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3115,8 +3277,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3159,8 +3324,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3203,8 +3371,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3247,52 +3418,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2789000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2834000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2661000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1803000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1975000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1505000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1144000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1421000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2280000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2611000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2182000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1907000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1572000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3335,8 +3512,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3379,8 +3559,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3423,52 +3606,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2609000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2663000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2659000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1518000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1676000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1189000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-534000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-662000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1568000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1908000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1861000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1499000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1242000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-933000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3511,101 +3700,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43953</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43862</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43771</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E81" s="3">
         <v>120000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>155000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>594000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>88000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>651000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>277000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>860000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>331000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-347000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-297000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-192000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-252000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3622,13 +3820,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53000</v>
+        <v>56000</v>
       </c>
       <c r="E83" s="3">
         <v>53000</v>
@@ -3637,37 +3836,40 @@
         <v>53000</v>
       </c>
       <c r="G83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="H83" s="3">
         <v>52000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>258000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>129000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>128000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>127000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>266000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>139000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>145000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>148000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3710,8 +3912,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3754,8 +3959,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3798,8 +4006,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3842,8 +4053,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3886,52 +4100,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E89" s="3">
         <v>15000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>66000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1045000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-126000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>573000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>249000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1333000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>420000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>286000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-342000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1326000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-252000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3948,52 +4168,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-88000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-178000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-65000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-76000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-124000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-148000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4036,8 +4260,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4080,52 +4307,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-74000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-88000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-60000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-168000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-56000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-67000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-116000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-60000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-72000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-171000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-131000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4142,8 +4375,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4151,20 +4385,20 @@
         <v>-46000</v>
       </c>
       <c r="E96" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-48000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-39000</v>
       </c>
       <c r="G96" s="3">
         <v>-39000</v>
       </c>
       <c r="H96" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-42000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4172,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-83000</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-83000</v>
@@ -4186,8 +4420,11 @@
       <c r="P96" s="3">
         <v>-83000</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-83000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4230,8 +4467,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4274,8 +4514,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4318,52 +4561,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-140000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1306000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-475000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-961000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1752000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1291000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-119000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-342000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1071000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-138000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-96000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-87000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-397000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4374,80 +4623,86 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>2000</v>
       </c>
       <c r="J101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-199000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>538000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1147000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1345000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1096000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1183000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1240000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-542000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1159000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-513000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-293000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>BBWI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,226 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44863</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43953</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43862</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43771</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2888000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1604000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1618000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1450000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3028000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1681000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3173000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1470000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2718000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1702000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2014000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1654000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4707000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2677000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2902000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1639000</v>
+      </c>
+      <c r="E9" s="3">
         <v>926000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>958000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>781000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1582000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>842000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1603000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>728000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3782000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2535000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2718000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1269000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2869000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1718000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1919000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1249000</v>
+      </c>
+      <c r="E10" s="3">
         <v>678000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>660000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>669000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1446000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>839000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1570000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>742000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1064000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-833000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-704000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>385000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1838000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>959000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +902,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +950,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,13 +1000,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -997,41 +1017,44 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>89000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>112000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>121000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>189000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>97000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>735000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>285000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,8 +1100,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1093,102 +1119,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2236000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1402000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1376000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1170000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2149000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1361000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2558000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1238000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1849000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1319000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1715000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1972000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4626000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2865000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2767000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E18" s="3">
         <v>202000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>242000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>280000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>879000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>320000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>615000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>232000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>869000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>383000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>299000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-318000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-188000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1206,102 +1239,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2000</v>
       </c>
       <c r="H20" s="3">
         <v>-2000</v>
       </c>
       <c r="I20" s="3">
-        <v>1000</v>
+        <v>-2000</v>
       </c>
       <c r="J20" s="3">
         <v>1000</v>
       </c>
       <c r="K20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>721000</v>
+      </c>
+      <c r="E21" s="3">
         <v>261000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>297000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>334000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>930000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>370000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>874000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>362000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>994000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>511000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>570000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-176000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>231000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,137 +1352,146 @@
         <v>86000</v>
       </c>
       <c r="F22" s="3">
+        <v>86000</v>
+      </c>
+      <c r="G22" s="3">
         <v>89000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>87000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>91000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>210000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>114000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>115000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>119000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>198000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>97000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>92000</v>
       </c>
       <c r="P22" s="3">
         <v>92000</v>
       </c>
       <c r="Q22" s="3">
+        <v>92000</v>
+      </c>
+      <c r="R22" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>576000</v>
+      </c>
+      <c r="E23" s="3">
         <v>119000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>158000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>192000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>790000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>227000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>406000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>119000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>751000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>265000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>106000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-412000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-277000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>198000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>50000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>194000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>69000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-115000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>186000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1488,102 +1537,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E26" s="3">
         <v>91000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>120000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>155000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>592000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>177000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>306000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>91000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>557000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>196000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>112000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-297000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-192000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-252000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E27" s="3">
         <v>91000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>120000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>155000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>592000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>177000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>306000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>91000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>557000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>196000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>112000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-297000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-192000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-252000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1629,13 +1687,16 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1644,40 +1705,43 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>2000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-89000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>345000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>186000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>303000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>135000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-459000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1723,8 +1787,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1770,102 +1837,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2000</v>
       </c>
       <c r="H32" s="3">
         <v>2000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="J32" s="3">
         <v>-1000</v>
       </c>
       <c r="K32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E33" s="3">
         <v>91000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>120000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>155000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>594000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>88000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>651000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>277000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>860000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>331000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-347000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-297000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-192000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-252000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1911,107 +1987,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E35" s="3">
         <v>91000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>120000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>155000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>594000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>88000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>651000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>277000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>860000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>331000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-347000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-297000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-192000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-252000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44863</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43953</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43862</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43771</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2029,8 +2114,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2048,55 +2134,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="E41" s="3">
         <v>295000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>452000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>651000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1979000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1441000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1988000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2807000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3903000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2622000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2611000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>957000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1499000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>340000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>853000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2142,290 +2232,311 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E43" s="3">
         <v>242000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>184000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>167000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>240000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>242000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>230000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>221000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>269000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>297000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>268000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>229000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>306000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>295000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1269000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>971000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>820000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>709000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1149000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1473000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1397000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1273000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1865000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1476000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1491000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1287000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2032000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E45" s="3">
         <v>142000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>147000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>114000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>81000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>153000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>823000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>187000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>134000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>143000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>150000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>172000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>153000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>259000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2266000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1948000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1754000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1752000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3009000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2985000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4514000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4612000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5579000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4927000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4505000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2849000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3245000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2926000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2653000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>125000</v>
+        <v>124000</v>
       </c>
       <c r="E47" s="3">
         <v>125000</v>
       </c>
       <c r="F47" s="3">
-        <v>126000</v>
+        <v>125000</v>
       </c>
       <c r="G47" s="3">
         <v>126000</v>
       </c>
       <c r="H47" s="3">
+        <v>126000</v>
+      </c>
+      <c r="I47" s="3">
         <v>125000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>119000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>120000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>119000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>125000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>124000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>120000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>118000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>112000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2243000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2195000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2158000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2117000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2030000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2040000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4565000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4626000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4653000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4789000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4927000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5246000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5539000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5701000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5965000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2445,7 +2556,7 @@
         <v>793000</v>
       </c>
       <c r="I49" s="3">
-        <v>1039000</v>
+        <v>793000</v>
       </c>
       <c r="J49" s="3">
         <v>1039000</v>
@@ -2466,13 +2577,16 @@
         <v>1039000</v>
       </c>
       <c r="P49" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1729000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1759000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2518,8 +2632,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2565,55 +2682,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E52" s="3">
         <v>72000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>71000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>72000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>88000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>155000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>149000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>181000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>281000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>285000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>185000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>184000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>162000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2659,55 +2782,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5494000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5133000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4901000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4860000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6026000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6031000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10392000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10546000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11571000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11161000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10880000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9439000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10125000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10630000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10618000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2725,8 +2854,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2744,72 +2874,76 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E57" s="3">
         <v>632000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>587000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>470000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>435000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>655000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>838000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>735000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>683000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1101000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>957000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>715000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>647000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1024000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2818,216 +2952,231 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>12000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>460000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>468000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>69000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>83000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>924000</v>
+      </c>
+      <c r="E59" s="3">
         <v>820000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>671000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>770000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>855000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>780000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1787000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1945000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2131000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2218000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2016000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1656000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1436000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1371000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1452000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1258000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1240000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1290000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1435000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2625000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2680000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2826000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3330000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3433000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2683000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2372000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2543000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2216000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4862000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4860000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4858000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4856000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4854000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4852000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5938000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5344000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6387000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6451000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6269000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5034000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5500000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5492000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5491000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1458000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1429000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1447000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1422000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1399000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1419000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3017000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3055000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3019000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2944000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3082000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3580000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3748000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3833000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3840000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3073,8 +3222,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3120,8 +3272,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3167,55 +3322,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7742000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7564000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7519000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7544000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7707000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11581000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11080000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12233000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12729000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12788000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11300000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11624000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11872000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11551000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3233,8 +3394,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3280,8 +3442,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3327,8 +3492,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3374,8 +3542,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3421,55 +3592,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2401000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2789000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2834000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2661000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1803000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1975000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1505000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1144000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1421000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2280000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2611000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2182000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1907000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1572000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3515,8 +3692,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3562,8 +3742,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3609,55 +3792,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2206000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2663000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2659000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1518000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1676000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1189000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-534000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-662000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1568000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1908000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1861000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1499000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1242000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-933000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3703,107 +3892,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44863</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43953</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43862</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43771</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E81" s="3">
         <v>91000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>120000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>155000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>594000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>88000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>651000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>277000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>860000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>331000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-347000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-297000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-192000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-252000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3821,16 +4019,17 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E83" s="3">
         <v>56000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>53000</v>
       </c>
       <c r="F83" s="3">
         <v>53000</v>
@@ -3839,37 +4038,40 @@
         <v>53000</v>
       </c>
       <c r="H83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="I83" s="3">
         <v>52000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>258000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>129000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>128000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>127000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>266000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>139000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>145000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>148000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3915,8 +4117,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3962,8 +4167,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4009,8 +4217,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4056,8 +4267,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4103,55 +4317,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1077000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>66000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1045000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-126000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>573000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>249000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1333000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>420000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>286000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-342000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1326000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-252000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4169,55 +4389,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-91000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-88000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-178000</v>
-      </c>
       <c r="J91" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-65000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-76000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-124000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-66000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-148000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4263,8 +4487,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4310,55 +4537,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-90000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-74000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-88000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-60000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-168000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-56000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-67000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-116000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-60000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-72000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-171000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-131000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4376,8 +4609,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4388,20 +4622,20 @@
         <v>-46000</v>
       </c>
       <c r="F96" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-48000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-39000</v>
       </c>
       <c r="H96" s="3">
         <v>-39000</v>
       </c>
       <c r="I96" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-42000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4409,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-83000</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-83000</v>
@@ -4423,8 +4657,11 @@
       <c r="Q96" s="3">
         <v>-83000</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-83000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4470,8 +4707,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4517,8 +4757,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4564,60 +4807,66 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-53000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-140000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1306000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-475000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-961000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1752000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1291000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-119000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-342000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1071000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-138000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-96000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-397000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4626,83 +4875,89 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>2000</v>
       </c>
       <c r="K101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-157000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-199000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>538000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1147000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1345000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1096000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1183000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1240000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-542000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1159000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-513000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-293000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>BBWI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,226 +665,238 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44044</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43953</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43862</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43771</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1396000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2888000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1604000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1618000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1450000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3028000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1681000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3173000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1470000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2718000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1702000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2014000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1654000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4707000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2677000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2902000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1639000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>926000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>958000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>781000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1582000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>842000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1603000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>728000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3782000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2535000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2718000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1269000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2869000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1718000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1919000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1249000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>678000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>660000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>669000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1446000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>839000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1570000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>742000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1064000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-833000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-704000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>385000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1838000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>959000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,8 +915,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -953,8 +966,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1003,16 +1019,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1020,41 +1039,44 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>89000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>112000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>121000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>41000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>189000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>97000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>735000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>285000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1103,8 +1125,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1120,108 +1145,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1215000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2236000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1402000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1376000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1170000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2149000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1361000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2558000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1238000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1849000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1319000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1715000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1972000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4626000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2865000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2767000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E18" s="3">
         <v>652000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>202000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>242000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>280000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>879000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>320000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>615000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>232000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>869000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>383000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>299000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-318000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-188000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1240,113 +1272,120 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="3">
         <v>10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2000</v>
       </c>
       <c r="I20" s="3">
         <v>-2000</v>
       </c>
       <c r="J20" s="3">
-        <v>1000</v>
+        <v>-2000</v>
       </c>
       <c r="K20" s="3">
         <v>1000</v>
       </c>
       <c r="L20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E21" s="3">
         <v>721000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>261000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>297000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>334000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>930000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>370000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>874000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>362000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>994000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>511000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>570000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-176000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>231000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-37000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>86000</v>
+        <v>89000</v>
       </c>
       <c r="E22" s="3">
         <v>86000</v>
@@ -1355,143 +1394,152 @@
         <v>86000</v>
       </c>
       <c r="G22" s="3">
+        <v>86000</v>
+      </c>
+      <c r="H22" s="3">
         <v>89000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>87000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>91000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>210000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>114000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>115000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>119000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>198000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>97000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>92000</v>
       </c>
       <c r="Q22" s="3">
         <v>92000</v>
       </c>
       <c r="R22" s="3">
+        <v>92000</v>
+      </c>
+      <c r="S22" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E23" s="3">
         <v>576000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>119000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>158000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>192000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>790000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>227000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>406000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>119000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>751000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>265000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>106000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-412000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-277000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>148000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>198000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>50000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>194000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>69000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-115000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>186000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-25000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1540,108 +1588,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E26" s="3">
         <v>428000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>91000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>120000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>155000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>592000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>177000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>306000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>91000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>557000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>196000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>112000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-297000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-192000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-252000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E27" s="3">
         <v>428000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>91000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>120000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>155000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>592000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>177000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>306000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>91000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>557000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>196000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>112000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-297000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-192000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-252000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1690,17 +1747,20 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>6000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
@@ -1708,40 +1768,43 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>2000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-89000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>345000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>186000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>303000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>135000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-459000</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1790,8 +1853,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1840,108 +1906,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2000</v>
       </c>
       <c r="I32" s="3">
         <v>2000</v>
       </c>
       <c r="J32" s="3">
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="K32" s="3">
         <v>-1000</v>
       </c>
       <c r="L32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E33" s="3">
         <v>434000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>91000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>120000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>155000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>594000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>88000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>651000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>277000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>860000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>331000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-347000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-297000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-192000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-252000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1990,113 +2065,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E35" s="3">
         <v>434000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>91000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>120000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>155000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>594000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>88000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>651000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>277000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>860000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>331000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-347000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-297000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-192000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-252000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44044</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43953</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43862</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43771</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2115,8 +2199,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2135,58 +2220,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1232000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>295000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>452000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>651000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1979000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1441000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1988000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2807000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3903000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2622000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2611000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>957000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1499000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>340000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>853000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2235,308 +2324,329 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E43" s="3">
         <v>226000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>242000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>184000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>167000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>240000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>242000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>230000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>221000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>269000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>297000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>268000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>229000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>306000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>295000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E44" s="3">
         <v>709000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1269000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>971000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>820000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>709000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1149000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1473000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1397000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1273000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1865000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1476000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1491000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1287000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2032000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E45" s="3">
         <v>99000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>142000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>147000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>114000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>81000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>153000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>823000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>187000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>134000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>143000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>150000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>172000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>153000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>259000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2080000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2266000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1948000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1754000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1752000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3009000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2985000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4514000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4612000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5579000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4927000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4505000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2849000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3245000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2926000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2653000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E47" s="3">
         <v>124000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>125000</v>
       </c>
       <c r="F47" s="3">
         <v>125000</v>
       </c>
       <c r="G47" s="3">
-        <v>126000</v>
+        <v>125000</v>
       </c>
       <c r="H47" s="3">
         <v>126000</v>
       </c>
       <c r="I47" s="3">
+        <v>126000</v>
+      </c>
+      <c r="J47" s="3">
         <v>125000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>119000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>120000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>119000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>125000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>124000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>120000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>118000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>112000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2295000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2243000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2195000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2158000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2117000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2030000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2040000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4565000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4626000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4653000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4789000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4927000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5246000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5539000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5701000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5965000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2559,7 +2669,7 @@
         <v>793000</v>
       </c>
       <c r="J49" s="3">
-        <v>1039000</v>
+        <v>793000</v>
       </c>
       <c r="K49" s="3">
         <v>1039000</v>
@@ -2580,13 +2690,16 @@
         <v>1039000</v>
       </c>
       <c r="Q49" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="R49" s="3">
         <v>1729000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1759000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2635,8 +2748,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2685,58 +2801,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E52" s="3">
         <v>68000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>72000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>72000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>88000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>155000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>149000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>181000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>281000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>285000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>185000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>184000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>162000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2785,58 +2907,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5363000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5494000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5133000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4901000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4860000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6026000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6031000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10392000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10546000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11571000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11161000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10880000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9439000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10125000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10630000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10618000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2855,8 +2983,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2875,58 +3004,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E57" s="3">
         <v>455000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>632000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>587000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>470000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>435000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>655000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>838000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>735000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>683000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1101000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>957000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>715000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>647000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1024000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2955,228 +3088,243 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>12000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>460000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>468000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>69000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>83000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>851000</v>
+      </c>
+      <c r="E59" s="3">
         <v>924000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>820000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>671000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>770000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>855000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>780000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1787000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1945000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2131000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2218000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2016000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1656000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1436000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1371000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1277000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1379000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1452000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1258000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1240000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1290000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1435000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2625000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2680000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2826000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3330000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3433000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2683000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2372000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2543000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2216000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4781000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4862000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4860000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4858000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4856000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4854000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4852000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5938000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5344000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6387000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6451000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6269000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5034000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5500000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5492000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5491000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1475000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1458000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1429000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1447000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1422000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1399000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1419000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3017000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3055000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3019000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2944000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3082000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3580000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3748000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3833000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3840000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3225,8 +3373,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3275,8 +3426,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3325,58 +3479,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7534000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7700000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7742000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7564000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7519000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7544000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7707000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11581000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11080000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12233000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12729000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12788000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11300000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11624000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11872000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11551000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3395,8 +3555,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3445,8 +3606,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3495,8 +3659,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3545,8 +3712,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3595,58 +3765,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2366000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2401000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2789000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2834000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2661000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1803000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1975000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1505000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1144000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1421000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2280000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2611000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2182000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1907000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1572000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3695,8 +3871,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3745,8 +3924,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3795,58 +3977,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2171000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2206000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2663000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2659000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1518000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1676000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1189000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-534000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-662000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1568000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1908000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1861000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1499000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1242000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-933000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3895,113 +4083,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44044</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43953</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43862</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43771</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E81" s="3">
         <v>434000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>91000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>120000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>155000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>594000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>88000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>651000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>277000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>860000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>331000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-347000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-297000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-192000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-252000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4020,19 +4217,20 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E83" s="3">
         <v>59000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>56000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>53000</v>
       </c>
       <c r="G83" s="3">
         <v>53000</v>
@@ -4041,37 +4239,40 @@
         <v>53000</v>
       </c>
       <c r="I83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J83" s="3">
         <v>52000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>258000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>129000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>128000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>127000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>266000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>145000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>148000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4120,8 +4321,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4170,8 +4374,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4220,8 +4427,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4270,8 +4480,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4320,58 +4533,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1077000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>66000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1045000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-126000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>573000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>249000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1333000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>420000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>286000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-342000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1326000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-252000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4390,58 +4609,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-76000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-91000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-73000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-88000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-113000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-65000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-124000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-148000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4490,8 +4713,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4540,58 +4766,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-76000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-90000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-74000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-88000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-60000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-168000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-67000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-116000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-60000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-171000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-131000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4610,8 +4842,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,20 +4858,20 @@
         <v>-46000</v>
       </c>
       <c r="G96" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-48000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-39000</v>
       </c>
       <c r="I96" s="3">
         <v>-39000</v>
       </c>
       <c r="J96" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-42000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4646,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-83000</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-83000</v>
@@ -4660,8 +4893,11 @@
       <c r="R96" s="3">
         <v>-83000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-83000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4710,8 +4946,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4760,8 +4999,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4810,58 +5052,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-63000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-53000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-140000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1306000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-475000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-961000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1752000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1291000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-119000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-342000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1071000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-138000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-87000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-397000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4869,7 +5117,7 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4878,86 +5126,92 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>2000</v>
       </c>
       <c r="L101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="E102" s="3">
         <v>937000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-157000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-199000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>538000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1147000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1345000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1096000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1183000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1240000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-542000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1159000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-513000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-293000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBWI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>BBWI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,238 +665,251 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
         <v>45045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44044</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43953</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43862</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43771</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1396000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2888000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1604000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1618000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1450000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3028000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1681000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3173000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1470000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2718000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1702000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2014000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1654000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4707000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2677000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2902000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E9" s="3">
         <v>800000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1639000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>926000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>958000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>781000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1582000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>842000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1603000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>728000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3782000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2535000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2718000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1269000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2869000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1718000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1919000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E10" s="3">
         <v>596000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1249000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>678000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>660000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>669000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1446000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>839000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1570000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>742000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1064000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-833000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-704000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>385000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1838000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>959000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,8 +929,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -969,8 +983,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1022,19 +1039,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1042,41 +1062,44 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>89000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>112000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>121000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>41000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>189000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>97000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>735000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>285000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,8 +1151,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1146,114 +1172,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1371000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1215000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2236000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1402000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1376000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1170000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2149000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1361000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2558000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1238000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1849000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1319000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1715000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1972000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4626000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2865000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2767000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E18" s="3">
         <v>181000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>652000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>202000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>242000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>280000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>879000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>320000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>615000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>232000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>869000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>383000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>299000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-318000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-188000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1273,122 +1306,129 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E20" s="3">
         <v>20000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2000</v>
       </c>
       <c r="J20" s="3">
         <v>-2000</v>
       </c>
       <c r="K20" s="3">
-        <v>1000</v>
+        <v>-2000</v>
       </c>
       <c r="L20" s="3">
         <v>1000</v>
       </c>
       <c r="M20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E21" s="3">
         <v>264000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>721000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>261000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>297000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>334000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>930000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>370000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>874000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>362000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>994000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>511000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>570000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-176000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>231000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-37000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>287000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E22" s="3">
         <v>89000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>86000</v>
       </c>
       <c r="F22" s="3">
         <v>86000</v>
@@ -1397,149 +1437,158 @@
         <v>86000</v>
       </c>
       <c r="H22" s="3">
+        <v>86000</v>
+      </c>
+      <c r="I22" s="3">
         <v>89000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>87000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>91000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>210000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>114000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>115000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>119000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>198000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>97000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>92000</v>
       </c>
       <c r="R22" s="3">
         <v>92000</v>
       </c>
       <c r="S22" s="3">
+        <v>92000</v>
+      </c>
+      <c r="T22" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E23" s="3">
         <v>112000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>576000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>119000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>158000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>192000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>790000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>227000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>406000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>119000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>751000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>265000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>106000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-412000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-277000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>31000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>148000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>198000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>50000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>194000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>69000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-115000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>186000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-25000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1591,114 +1640,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E26" s="3">
         <v>81000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>428000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>91000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>120000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>155000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>592000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>177000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>306000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>91000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>557000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>196000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>112000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-297000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-192000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-252000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E27" s="3">
         <v>81000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>428000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>91000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>120000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>155000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>592000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>177000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>306000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>91000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>557000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>196000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>112000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-297000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-192000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-252000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1750,20 +1808,23 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>6000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -1771,40 +1832,43 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>2000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-89000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>345000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>186000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>303000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>135000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-459000</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1856,8 +1920,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1909,114 +1976,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-20000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2000</v>
       </c>
       <c r="J32" s="3">
         <v>2000</v>
       </c>
       <c r="K32" s="3">
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="L32" s="3">
         <v>-1000</v>
       </c>
       <c r="M32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E33" s="3">
         <v>81000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>434000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>91000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>120000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>155000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>594000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>88000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>651000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>277000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>860000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>331000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-347000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-297000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-192000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-252000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2068,119 +2144,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E35" s="3">
         <v>81000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>434000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>91000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>120000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>155000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>594000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>88000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>651000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>277000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>860000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>331000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-347000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-297000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-192000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-252000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
         <v>45045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44044</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43953</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43862</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43771</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2200,8 +2285,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2221,61 +2307,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1046000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1232000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>295000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>452000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>651000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1979000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1441000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1988000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2807000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3903000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2622000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2611000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>957000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1499000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>340000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>853000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2327,326 +2417,347 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E43" s="3">
         <v>145000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>226000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>242000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>184000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>167000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>240000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>242000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>230000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>221000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>269000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>297000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>268000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>229000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>306000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>295000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>818000</v>
+      </c>
+      <c r="E44" s="3">
         <v>771000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>709000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1269000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>971000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>820000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>709000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1149000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1473000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1397000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1273000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1865000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1476000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1491000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1287000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2032000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E45" s="3">
         <v>118000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>99000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>142000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>147000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>114000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>81000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>153000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>823000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>187000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>134000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>143000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>150000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>172000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>153000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>259000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1893000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2080000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2266000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1948000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1754000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1752000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3009000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2985000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4514000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4612000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5579000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4927000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4505000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2849000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3245000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2926000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2653000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E47" s="3">
         <v>126000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>124000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>125000</v>
       </c>
       <c r="G47" s="3">
         <v>125000</v>
       </c>
       <c r="H47" s="3">
-        <v>126000</v>
+        <v>125000</v>
       </c>
       <c r="I47" s="3">
         <v>126000</v>
       </c>
       <c r="J47" s="3">
+        <v>126000</v>
+      </c>
+      <c r="K47" s="3">
         <v>125000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>119000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>120000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>119000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>125000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>124000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>120000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>118000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>112000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2295000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2243000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2195000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2158000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2117000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2030000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2040000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4565000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4626000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4653000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4789000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4927000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5246000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5539000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5701000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5965000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2672,7 +2783,7 @@
         <v>793000</v>
       </c>
       <c r="K49" s="3">
-        <v>1039000</v>
+        <v>793000</v>
       </c>
       <c r="L49" s="3">
         <v>1039000</v>
@@ -2693,13 +2804,16 @@
         <v>1039000</v>
       </c>
       <c r="R49" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="S49" s="3">
         <v>1729000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1759000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2751,8 +2865,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2804,61 +2921,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E52" s="3">
         <v>69000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>72000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>71000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>72000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>88000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>155000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>149000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>181000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>281000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>285000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>185000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>184000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>162000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2910,61 +3033,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5195000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5363000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5494000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5133000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4901000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4860000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6026000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6031000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10392000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10546000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11571000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11161000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10880000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9439000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10125000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10630000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10618000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2984,8 +3113,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3005,61 +3135,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E57" s="3">
         <v>426000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>455000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>632000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>587000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>470000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>435000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>655000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>838000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>735000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>683000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1101000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>957000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>715000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>647000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1024000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3091,240 +3225,255 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>12000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>460000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>468000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>69000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>83000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E59" s="3">
         <v>851000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>924000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>820000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>671000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>770000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>855000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>780000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1787000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1945000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2131000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2218000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2016000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1656000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1436000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1371000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1213000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1277000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1379000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1452000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1258000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1240000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1290000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1435000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2625000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2680000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2826000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3330000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3433000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2683000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2372000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2543000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2216000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4668000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4781000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4862000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4860000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4858000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4856000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4854000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4852000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5938000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5344000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6387000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6451000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6269000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5034000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5500000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5492000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5491000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1468000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1475000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1458000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1429000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1447000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1422000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1399000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1419000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3017000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3055000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3019000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2944000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3082000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3580000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3748000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3833000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3840000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3376,8 +3525,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3429,8 +3581,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3482,61 +3637,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7350000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7534000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7700000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7742000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7564000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7519000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7544000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7707000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11581000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11080000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12233000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12729000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12788000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11300000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11624000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11872000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11551000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3556,8 +3717,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3609,8 +3771,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3662,8 +3827,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3715,8 +3883,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3768,61 +3939,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2358000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2366000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2401000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2789000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2834000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2661000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1803000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1975000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1505000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1144000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1421000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2280000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2611000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2562000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2182000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1907000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1572000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3874,8 +4051,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3927,8 +4107,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3980,61 +4163,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2155000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2171000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2206000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2663000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2659000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1518000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1676000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1189000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-534000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-662000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1568000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1908000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1861000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1499000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1242000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-933000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4086,119 +4275,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
         <v>45045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44044</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43953</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43862</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43771</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43680</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E81" s="3">
         <v>81000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>434000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>91000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>120000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>155000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>594000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>88000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>651000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>277000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>860000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>331000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-347000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-297000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-192000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-252000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4218,22 +4416,23 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E83" s="3">
         <v>63000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>59000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>56000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>53000</v>
       </c>
       <c r="H83" s="3">
         <v>53000</v>
@@ -4242,37 +4441,40 @@
         <v>53000</v>
       </c>
       <c r="J83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K83" s="3">
         <v>52000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>258000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>129000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>128000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>127000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>266000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>145000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>148000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4324,8 +4526,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4377,8 +4582,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4430,8 +4638,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4483,8 +4694,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4536,61 +4750,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E89" s="3">
         <v>44000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1077000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>66000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1045000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-126000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>573000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>249000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1333000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>420000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>286000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-342000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1326000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-252000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4610,61 +4830,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-93000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-76000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-91000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-73000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-88000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-63000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-113000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-65000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-124000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-66000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-148000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4716,8 +4940,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4769,61 +4996,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-94000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-76000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-90000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-88000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-60000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-168000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-67000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-116000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-72000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-171000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-131000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4843,8 +5076,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,20 +5095,20 @@
         <v>-46000</v>
       </c>
       <c r="H96" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-48000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-39000</v>
       </c>
       <c r="J96" s="3">
         <v>-39000</v>
       </c>
       <c r="K96" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-42000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4882,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-83000</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-83000</v>
@@ -4896,8 +5130,11 @@
       <c r="S96" s="3">
         <v>-83000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-83000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4949,8 +5186,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5002,8 +5242,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5055,72 +5298,78 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-135000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-63000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-53000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-140000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1306000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-475000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-961000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1752000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1291000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-119000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-342000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1071000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-138000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-96000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-87000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-397000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-1000</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
         <v>-1000</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5129,89 +5378,95 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>2000</v>
       </c>
       <c r="M101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-256000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-186000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>937000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-157000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-199000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>538000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1147000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1345000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1096000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1183000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1240000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-542000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1159000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-513000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-293000</v>
       </c>
     </row>
